--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Riomed\DemoServerAutomation\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217FDE19-656D-4477-A72F-327D2571346B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAAF38FD-47F8-4182-BA44-3AA5C4CD86B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4710" yWindow="3540" windowWidth="18000" windowHeight="9360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginDetails" sheetId="1" r:id="rId1"/>
@@ -296,7 +296,7 @@
     <t>TestBatch</t>
   </si>
   <si>
-    <t>Dolo 35 MG</t>
+    <t>Dolo 38 MG</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1018,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Dolo 35 MG</v>
+        <v>Dolo 38 MG</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Riomed\DemoServerAutomation\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE30AE1-C558-4F1D-B3A7-55A01A5281B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63AE1A7-15FE-4264-B96C-B2ABEE801AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3420" yWindow="3420" windowWidth="18000" windowHeight="9360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -296,7 +296,7 @@
     <t>TestBatch</t>
   </si>
   <si>
-    <t>Dolo 42 MG</t>
+    <t>Dolo 43 MG</t>
   </si>
 </sst>
 </file>
@@ -744,7 +744,7 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1018,7 +1018,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Dolo 42 MG</v>
+        <v>Dolo 43 MG</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Riomed\DemoServerAutomation\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63AE1A7-15FE-4264-B96C-B2ABEE801AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA872AF7-1623-4764-AEA4-EB50B78C59ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="18000" windowHeight="9360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginDetails" sheetId="1" r:id="rId1"/>
@@ -296,7 +296,7 @@
     <t>TestBatch</t>
   </si>
   <si>
-    <t>Dolo 43 MG</t>
+    <t>Dolo 45 MG</t>
   </si>
 </sst>
 </file>
@@ -744,7 +744,7 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1018,7 +1018,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Dolo 43 MG</v>
+        <v>Dolo 45 MG</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Riomed\DemoServerAutomation\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA872AF7-1623-4764-AEA4-EB50B78C59ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE4323D-9250-446A-98CD-600C4B424367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -296,7 +296,7 @@
     <t>TestBatch</t>
   </si>
   <si>
-    <t>Dolo 45 MG</t>
+    <t>Dolo 46 MG</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1018,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Dolo 45 MG</v>
+        <v>Dolo 46 MG</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Riomed\DemoServerAutomation\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE4323D-9250-446A-98CD-600C4B424367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C034D9C-93B1-4BCD-A9EC-8040081DE326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -296,7 +296,7 @@
     <t>TestBatch</t>
   </si>
   <si>
-    <t>Dolo 46 MG</t>
+    <t>Dolo 48 MG</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1018,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Dolo 46 MG</v>
+        <v>Dolo 48 MG</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Riomed\DemoServerAutomation\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C034D9C-93B1-4BCD-A9EC-8040081DE326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBCD337-8827-4F96-95D1-462B1CD8A0EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -662,7 +662,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Riomed\DemoServerAutomation\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBCD337-8827-4F96-95D1-462B1CD8A0EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65E5FA6-401E-41A4-B4DE-278D8BD42F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -296,7 +296,7 @@
     <t>TestBatch</t>
   </si>
   <si>
-    <t>Dolo 48 MG</t>
+    <t>Dolo 52 MG</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1018,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Dolo 48 MG</v>
+        <v>Dolo 52 MG</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Riomed\DemoServerAutomation\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65E5FA6-401E-41A4-B4DE-278D8BD42F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133B870D-1E7E-4675-B73F-2DD3CB9BA90C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -296,7 +296,7 @@
     <t>TestBatch</t>
   </si>
   <si>
-    <t>Dolo 52 MG</t>
+    <t>Zinco10</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1018,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Dolo 52 MG</v>
+        <v>Zinco10</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Riomed\DemoServerAutomation\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133B870D-1E7E-4675-B73F-2DD3CB9BA90C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87D7546-70C5-4C64-9DB2-290C64B201A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -296,7 +296,7 @@
     <t>TestBatch</t>
   </si>
   <si>
-    <t>Zinco10</t>
+    <t>Zinco18</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1018,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Zinco10</v>
+        <v>Zinco18</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Riomed\DemoServerAutomation\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87D7546-70C5-4C64-9DB2-290C64B201A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3097F6-620B-47C5-9AE8-B4254FDAE8F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -296,7 +296,7 @@
     <t>TestBatch</t>
   </si>
   <si>
-    <t>Zinco18</t>
+    <t>Zinco20</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1018,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Zinco18</v>
+        <v>Zinco20</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Riomed\DemoServerAutomation\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3097F6-620B-47C5-9AE8-B4254FDAE8F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647B529B-194F-46E7-B279-33D2188A9B2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1830" yWindow="1830" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginDetails" sheetId="1" r:id="rId1"/>
@@ -296,7 +296,7 @@
     <t>TestBatch</t>
   </si>
   <si>
-    <t>Zinco20</t>
+    <t>Zinco21</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1018,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Zinco20</v>
+        <v>Zinco21</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Riomed\DemoServerAutomation\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647B529B-194F-46E7-B279-33D2188A9B2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24AFDB7B-E05D-4ED5-BEA6-DEFDEEDEF2BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1830" yWindow="1830" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginDetails" sheetId="1" r:id="rId1"/>
@@ -296,7 +296,7 @@
     <t>TestBatch</t>
   </si>
   <si>
-    <t>Zinco21</t>
+    <t>Zinco22</t>
   </si>
 </sst>
 </file>
@@ -744,7 +744,7 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1018,7 +1018,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Zinco21</v>
+        <v>Zinco22</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Riomed\DemoServerAutomation\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24AFDB7B-E05D-4ED5-BEA6-DEFDEEDEF2BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714FBD14-F3C4-4AB1-B1AD-477EDE93D2BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="18000" windowHeight="9360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginDetails" sheetId="1" r:id="rId1"/>
@@ -296,7 +296,7 @@
     <t>TestBatch</t>
   </si>
   <si>
-    <t>Zinco22</t>
+    <t>ZincoA01</t>
   </si>
 </sst>
 </file>
@@ -744,7 +744,7 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1018,7 +1018,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Zinco22</v>
+        <v>ZincoA01</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Riomed\DemoServerAutomation\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714FBD14-F3C4-4AB1-B1AD-477EDE93D2BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF48092-14E5-4CD2-8381-DE0B20CD093F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="18000" windowHeight="9360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginDetails" sheetId="1" r:id="rId1"/>
@@ -296,7 +296,7 @@
     <t>TestBatch</t>
   </si>
   <si>
-    <t>ZincoA01</t>
+    <t>ZincoA02</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1018,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>ZincoA01</v>
+        <v>ZincoA02</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Riomed\DemoServerAutomation\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF48092-14E5-4CD2-8381-DE0B20CD093F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371E17FC-353E-4647-9AF5-00809DA90F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -296,7 +296,7 @@
     <t>TestBatch</t>
   </si>
   <si>
-    <t>ZincoA02</t>
+    <t>ZincoA03</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1018,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>ZincoA02</v>
+        <v>ZincoA03</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Riomed\DemoServerAutomation\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371E17FC-353E-4647-9AF5-00809DA90F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538AFCB8-1D31-4D6A-A424-8CB3CA346964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -296,7 +296,7 @@
     <t>TestBatch</t>
   </si>
   <si>
-    <t>ZincoA03</t>
+    <t>ZincoA05</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1018,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>ZincoA03</v>
+        <v>ZincoA05</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Riomed\DemoServerAutomation\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538AFCB8-1D31-4D6A-A424-8CB3CA346964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B55555-6822-42F8-A132-1875027B445F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -296,7 +296,7 @@
     <t>TestBatch</t>
   </si>
   <si>
-    <t>ZincoA05</t>
+    <t>ZincoB01</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1018,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>ZincoA05</v>
+        <v>ZincoB01</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Riomed\DemoServerAutomation\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B55555-6822-42F8-A132-1875027B445F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A6EF55-511A-4BA4-B175-DC409E42F498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -296,7 +296,7 @@
     <t>TestBatch</t>
   </si>
   <si>
-    <t>ZincoB01</t>
+    <t>ZincoAB01</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1018,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>ZincoB01</v>
+        <v>ZincoAB01</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
